--- a/BusPassengerListCreationTool/bin/Debug/net8.0-windows/busPassengerList/あごころ乗車名簿_2025-03-02.xlsx
+++ b/BusPassengerListCreationTool/bin/Debug/net8.0-windows/busPassengerList/あごころ乗車名簿_2025-03-02.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\src\repos\BusPassengerListCreationTool\BusPassengerListCreationTool\bin\Debug\net8.0-windows\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ED3A2A-4F02-4893-8729-18A201C8ACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <x:sheet name="乗車名簿" sheetId="2" r:id="rId4"/>
+    <x:sheet name="乗車名簿" sheetId="1" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -23,64 +28,233 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>運行日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>令和7年3月7日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>名前</x:t>
-  </x:si>
-  <x:si>
-    <x:t>住所</x:t>
-  </x:si>
-  <x:si>
-    <x:t>電話番号</x:t>
-  </x:si>
-  <x:si>
-    <x:t>バス停</x:t>
-  </x:si>
-  <x:si>
-    <x:t>備考</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小澤　二郎</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福井市羽坂町＊＊＊＊＊＊＊＊＊</x:t>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>No.</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="18"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>運行日</x:t>
+    </x:r>
+    <x:rPh sb="0" eb="3">
+      <x:t>ウンコウビ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>令和 7年 3月 7日</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>名前</x:t>
+    </x:r>
+    <x:rPh sb="0" eb="2">
+      <x:t>ナマエ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>住所</x:t>
+    </x:r>
+    <x:rPh sb="0" eb="2">
+      <x:t>ジュウショ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>電話番号</x:t>
+    </x:r>
+    <x:rPh sb="0" eb="4">
+      <x:t>デンワバンゴウ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>バス停</x:t>
+    </x:r>
+    <x:rPh sb="2" eb="3">
+      <x:t>テイ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="14"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="3"/>
+        <x:charset val="128"/>
+        <x:scheme val="minor"/>
+      </x:rPr>
+      <x:t>備考</x:t>
+    </x:r>
+    <x:rPh sb="0" eb="2">
+      <x:t>ビコウ</x:t>
+    </x:rPh>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>大城　奏</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福井市本堂町＊＊＊＊＊＊＊＊</x:t>
   </x:si>
   <x:si>
     <x:t>00-0000-0000</x:t>
   </x:si>
   <x:si>
-    <x:t>羽坂団地</x:t>
+    <x:t>桜ヶ丘</x:t>
   </x:si>
   <x:si>
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>宮永　良子</x:t>
-  </x:si>
-  <x:si>
-    <x:t>福井市恐神町＊＊＊＊＊＊＊＊＊</x:t>
-  </x:si>
-  <x:si>
-    <x:t>恐神</x:t>
+    <x:t>山田　花子</x:t>
+  </x:si>
+  <x:si>
+    <x:t>福井市本堂町＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊＊</x:t>
+  </x:si>
+  <x:si>
+    <x:t>080-0000-0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>本堂</x:t>
+  </x:si>
+  <x:si>
+    <x:t>デバッグ　太郎</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0000-00-0000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>テストテストテストテストテストテストテストテスト</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="7">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Yu Gothic"/>
       <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="6"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="14"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="18"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="14"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="18"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="3"/>
+      <x:charset val="128"/>
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
@@ -91,15 +265,21 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border>
       <x:left/>
       <x:right/>
@@ -107,15 +287,65 @@
       <x:bottom/>
       <x:diagonal/>
     </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+      <x:diagonal/>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="58" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="8">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment vertical="center" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="標準" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <x:extLst>
@@ -391,101 +621,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A2:F12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F2" sqref="F2"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData/>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E5"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="18.75"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="5.625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="19.625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="14.625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="36.625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="2" spans="1:6" ht="30" customHeight="1">
+      <x:c r="E2" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A4" s="7" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B4" s="7" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="7" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="7" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F4" s="7" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A5" s="7">
         <x:v>1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="B5" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F5" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A6" s="7">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B6" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A7" s="7">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="B7" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E7" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F7" s="4" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A8" s="7">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="B8" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E8" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A9" s="7">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="B9" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E9" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F9" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A10" s="7">
         <x:v>6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="B10" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E10" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A11" s="7">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B11" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E11" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6" ht="39.95" customHeight="1">
+      <x:c r="A12" s="7">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>11</x:v>
+      <x:c r="B12" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D12" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E12" s="3" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="4" t="s">
+        <x:v>20</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="9" scale="100" pageOrder="downThenOver" orientation="landscape" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
